--- a/FIFA groupstage Real results.xlsx
+++ b/FIFA groupstage Real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A895B-3117-A44D-B60D-AB8F5B4E06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD7C58-BA40-9140-9DA7-9DCF3F7A63D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2029,6 +2029,12 @@
       <c r="O26">
         <v>12.99</v>
       </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2075,6 +2081,12 @@
       </c>
       <c r="O27">
         <v>7.07</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">

--- a/FIFA groupstage Real results.xlsx
+++ b/FIFA groupstage Real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD7C58-BA40-9140-9DA7-9DCF3F7A63D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBD52A-03BD-D54C-86F2-945CDBB17B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FIFA groupstage Real results.xlsx
+++ b/FIFA groupstage Real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBD52A-03BD-D54C-86F2-945CDBB17B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57106F64-1104-C743-ACEA-CC51BD2F6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2135,6 +2135,12 @@
       <c r="O28">
         <v>-5.14</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2181,6 +2187,12 @@
       </c>
       <c r="O29">
         <v>5.78</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">

--- a/FIFA groupstage Real results.xlsx
+++ b/FIFA groupstage Real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57106F64-1104-C743-ACEA-CC51BD2F6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C3892-291A-F744-9DA7-9104E1B517BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FIFA groupstage Real results.xlsx
+++ b/FIFA groupstage Real results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C3892-291A-F744-9DA7-9104E1B517BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B564E-2F05-FF40-9A72-005E29F98C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2241,6 +2241,12 @@
       <c r="O30">
         <v>8.76</v>
       </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -2288,6 +2294,12 @@
       <c r="O31">
         <v>11.25</v>
       </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -2335,8 +2347,14 @@
       <c r="O32">
         <v>-3.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2382,8 +2400,14 @@
       <c r="O33">
         <v>-3.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>-4.5599999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2477,7 +2501,7 @@
         <v>-3.23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2524,7 +2548,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
